--- a/data/option_data/call/AES.xlsx
+++ b/data/option_data/call/AES.xlsx
@@ -501,19 +501,19 @@
         <v>14.8</v>
       </c>
       <c r="G2">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.8256853369140623</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -539,19 +539,19 @@
         <v>10.74</v>
       </c>
       <c r="G3">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>13</v>
       </c>
       <c r="I3">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>8</v>
       </c>
       <c r="K3">
-        <v>0.737307314453125</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -577,19 +577,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G4">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>15</v>
       </c>
       <c r="I4">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
-        <v>0.5283250292968751</v>
+        <v>1E-05</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -615,19 +615,19 @@
         <v>9.91</v>
       </c>
       <c r="G5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>17</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.3999083447265626</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -653,19 +653,19 @@
         <v>7.97</v>
       </c>
       <c r="G6">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>0.3902648864746094</v>
+        <v>1E-05</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>8.800000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>22</v>
       </c>
       <c r="I7">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>0.3859924682617187</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -726,22 +726,22 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <v>7.41</v>
+        <v>7.3</v>
       </c>
       <c r="G8">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>25</v>
       </c>
       <c r="I8">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>8</v>
       </c>
       <c r="K8">
-        <v>0.3747621118164062</v>
+        <v>1E-05</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -764,22 +764,22 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="G9">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>27</v>
       </c>
       <c r="I9">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.3784241845703125</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -802,22 +802,22 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G10">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>0.4117490466308594</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -843,19 +843,19 @@
         <v>2.65</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>35</v>
       </c>
       <c r="I11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>0.3468082897949218</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -881,19 +881,19 @@
         <v>2.25</v>
       </c>
       <c r="G12">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>40</v>
       </c>
       <c r="I12">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.3599917517089843</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>

--- a/data/option_data/call/AES.xlsx
+++ b/data/option_data/call/AES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>symbol</t>
   </si>
@@ -440,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,22 +466,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -501,25 +498,22 @@
         <v>14.8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.7143583251953125</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -539,25 +533,22 @@
         <v>10.74</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="H3">
         <v>13</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4223690576171875</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,25 +568,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="H4">
         <v>15</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>1E-05</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5556685058593751</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -615,25 +603,22 @@
         <v>9.91</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="H5">
         <v>17</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4123593920898437</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -653,25 +638,22 @@
         <v>7.97</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1E-05</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4038145556640625</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -691,25 +673,22 @@
         <v>9.07</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H7">
         <v>22</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3942931665039063</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -729,25 +708,22 @@
         <v>7.3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H8">
         <v>25</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>1E-05</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3840393627929687</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -767,25 +743,22 @@
         <v>6.7</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H9">
         <v>27</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J9">
-        <v>70</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3772034936523437</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -805,25 +778,22 @@
         <v>5.1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.3742738354492187</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -843,25 +813,22 @@
         <v>2.65</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H11">
         <v>35</v>
       </c>
       <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0.3657289990234375</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -878,24 +845,21 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H12">
         <v>40</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L12" t="b">
+        <v>0.3603579589843749</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
